--- a/DMA Competency Queries.xlsx
+++ b/DMA Competency Queries.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC601659-7037-495C-89DC-B30BB581B9F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC41A3-3F81-4466-842F-26B6FD3E5117}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17520" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="28" r:id="rId1"/>
@@ -790,45 +790,6 @@
     <t>author=&gt; N/A</t>
   </si>
   <si>
-    <t>License: Creative Commons</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Note: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This excel provides a list of competency queries evaluated on the real ontology repository of the SAM project (http://wiki.socialisingaroundmedia.com). These queries can be also played on the example ontology James Bond case study (https://w3id.org/media/dma/JamesBond_CaseStudy), however, notice this example ontology just models a few individuals taken (transformed into ontology instances) from IMDB (https://www.imdb.com/), so for this example not always results are obtained.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>In case of pretending to reuse these queries, notice the filtering parameters can be fit to the target repository but always considering the  DMA schema (https://w3id.org/media/dma/)!</t>
-    </r>
-  </si>
-  <si>
     <t>27. Which media products are related to James Bond Series?</t>
   </si>
   <si>
@@ -896,6 +857,45 @@
   </si>
   <si>
     <t>Note: In the real SAM repository is was used as paramenter "Pride and Prejudice" instead "Casino Royale"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This excel provides a list of competency queries evaluated on the real ontology repository of the SAM project (http://wiki.socialisingaroundmedia.com). These queries can be also played on the example ontology James Bond case study (https://w3id.org/media/dma/JamesBond_CaseStudy). However, notice this example ontology just models a few individuals taken (transformed into ontology instances) from IMDB (https://www.imdb.com/). So, for this example not always results are obtained.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In case of pretending to reuse these queries, notice the filtering parameters can be fit to the target repository and always considering the  DMA schema (https://w3id.org/media/dma/)!</t>
+    </r>
+  </si>
+  <si>
+    <t>License: Creative Commons Attribution 4.0 International License</t>
   </si>
 </sst>
 </file>
@@ -1032,14 +1032,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1328,14 +1328,14 @@
       <selection activeCell="C3" sqref="C3:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="65.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C3" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1348,7 +1348,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -1361,7 +1361,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -1374,7 +1374,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1387,7 +1387,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1400,7 +1400,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1413,7 +1413,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1426,7 +1426,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1439,7 +1439,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1452,7 +1452,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -1465,7 +1465,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1478,7 +1478,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1491,7 +1491,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -1504,7 +1504,7 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1517,7 +1517,7 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1530,7 +1530,7 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
     </row>
-    <row r="18" spans="3:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1543,17 +1543,25 @@
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
     </row>
-    <row r="20" spans="3:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
+    <row r="20" spans="3:13" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="C20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C3:M18"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1568,14 +1576,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1608,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1608,9 +1616,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1627,14 +1635,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +1658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1667,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1667,12 +1675,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E8" s="7"/>
     </row>
   </sheetData>
@@ -1689,14 +1697,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1712,7 +1720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1721,7 +1729,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1729,9 +1737,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1748,14 +1756,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1763,7 +1771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1771,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1788,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1788,9 +1796,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1807,14 +1815,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1839,7 +1847,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1847,9 +1855,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1866,14 +1874,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1889,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1898,7 +1906,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1906,9 +1914,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1925,14 +1933,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1940,7 +1948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1957,7 +1965,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1965,9 +1973,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1984,14 +1992,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1999,7 +2007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2016,7 +2024,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2024,9 +2032,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2043,14 +2051,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2058,7 +2066,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2066,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2075,7 +2083,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2083,9 +2091,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2102,14 +2110,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2125,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2134,7 +2142,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2142,9 +2150,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2161,14 +2169,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2176,7 +2184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2184,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2193,7 +2201,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2201,9 +2209,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -2221,14 +2229,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2244,7 +2252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +2261,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2261,9 +2269,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2280,14 +2288,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2303,7 +2311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2320,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2320,9 +2328,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2339,14 +2347,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2371,7 +2379,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2379,9 +2387,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2398,14 +2406,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2421,7 +2429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2430,7 +2438,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2438,9 +2446,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2457,14 +2465,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2480,7 +2488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2489,7 +2497,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2497,9 +2505,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2516,14 +2524,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2531,7 +2539,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2548,7 +2556,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2556,9 +2564,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2575,14 +2583,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +2606,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2607,7 +2615,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2615,9 +2623,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2634,27 +2642,27 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2662,7 +2670,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2671,7 +2679,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2679,9 +2687,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2701,22 +2709,22 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2724,26 +2732,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2760,22 +2768,22 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2783,16 +2791,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2800,9 +2808,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2819,14 +2827,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +2842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2859,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2859,9 +2867,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2878,14 +2886,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2901,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2910,7 +2918,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2918,9 +2926,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2937,14 +2945,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2960,7 +2968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2969,7 +2977,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -2977,9 +2985,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2996,14 +3004,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3011,7 +3019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3028,7 +3036,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3036,9 +3044,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3055,14 +3063,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3070,7 +3078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3078,7 +3086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3087,7 +3095,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3095,9 +3103,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3114,14 +3122,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3129,7 +3137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3146,7 +3154,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3154,9 +3162,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3173,14 +3181,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103" customWidth="1"/>
-    <col min="6" max="6" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="117.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3188,7 +3196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" ht="282.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3205,7 +3213,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3213,9 +3221,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D6" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
